--- a/result/人工評分.xlsx
+++ b/result/人工評分.xlsx
@@ -5104,13 +5104,13 @@
       <c r="D33" s="4"/>
       <c r="E33" s="7"/>
       <c r="F33" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="34">
@@ -5120,13 +5120,13 @@
       <c r="D34" s="4"/>
       <c r="E34" s="7"/>
       <c r="F34" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="35">
@@ -5152,19 +5152,19 @@
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="37">
       <c r="I37" s="45">
         <f t="array" ref="I37">(sum(I22:I36) / SUM(ABS(I22:I36)  )+1)  /2</f>
-        <v>0.8095238095</v>
+        <v>0.7083333333</v>
       </c>
     </row>
     <row r="39">
@@ -5439,13 +5439,13 @@
       <c r="D53" s="4"/>
       <c r="E53" s="7"/>
       <c r="F53" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="54">
@@ -5471,13 +5471,13 @@
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="56">
@@ -5487,13 +5487,13 @@
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="57">
@@ -5503,13 +5503,13 @@
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="58">
@@ -5519,19 +5519,19 @@
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="59">
       <c r="I59" s="37">
         <f t="array" ref="I59">(sum(I41:I58) / SUM(ABS(I41:I58)  )+1)  /2</f>
-        <v>0.652173913</v>
+        <v>0.5357142857</v>
       </c>
     </row>
     <row r="61">
@@ -6654,13 +6654,13 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16">
@@ -6670,19 +6670,19 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17">
       <c r="I17" s="10">
         <f t="array" ref="I17">(sum(I3:I16) / SUM(ABS(I3:I16)  )+1)  /2</f>
-        <v>1</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="19">
@@ -6934,13 +6934,13 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="32">
@@ -6953,13 +6953,13 @@
       <c r="D32" s="4"/>
       <c r="E32" s="7"/>
       <c r="F32" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="33">
@@ -6972,13 +6972,13 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="34">
@@ -6988,13 +6988,13 @@
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="35">
@@ -7014,7 +7014,7 @@
     <row r="36">
       <c r="I36" s="45">
         <f t="array" ref="I36">(sum(I21:I35) / SUM(ABS(I21:I35)  )+1)  /2</f>
-        <v>1</v>
+        <v>0.8181818182</v>
       </c>
     </row>
     <row r="38">
@@ -7298,13 +7298,13 @@
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="53">
@@ -7314,13 +7314,13 @@
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="54">
@@ -7346,13 +7346,13 @@
       <c r="D55" s="7"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="56">
@@ -7362,13 +7362,13 @@
       <c r="D56" s="7"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="57">
@@ -7378,13 +7378,13 @@
       <c r="D57" s="7"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="58">
@@ -7394,19 +7394,19 @@
       <c r="D58" s="7"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="59">
       <c r="I59" s="37">
         <f t="array" ref="I59">(sum(I40:I58) / SUM(ABS(I40:I58)  )+1)  /2</f>
-        <v>0.652173913</v>
+        <v>0.5172413793</v>
       </c>
     </row>
     <row r="61">
@@ -8444,13 +8444,13 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16">
@@ -8460,19 +8460,19 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17">
       <c r="I17" s="10">
         <f t="array" ref="I17">(sum(I3:I16) / SUM(ABS(I3:I16)  )+1)  /2</f>
-        <v>0.8095238095</v>
+        <v>0.7391304348</v>
       </c>
     </row>
     <row r="19">
@@ -8725,13 +8725,13 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="33">
@@ -8741,19 +8741,19 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="34">
       <c r="I34" s="45">
         <f t="array" ref="I34">(sum(I21:I33) / SUM(ABS(I21:I33)  )+1)  /2</f>
-        <v>0.8888888889</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="36">
@@ -8992,15 +8992,13 @@
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G48" s="4">
-        <v>0.5</v>
-      </c>
+        <v>-0.5</v>
+      </c>
+      <c r="G48" s="4"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="49">
@@ -9010,13 +9008,13 @@
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="50">
@@ -9026,13 +9024,13 @@
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="51">
@@ -9042,13 +9040,13 @@
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="52">
@@ -9058,13 +9056,13 @@
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="53">
@@ -9074,19 +9072,19 @@
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="54">
       <c r="I54" s="37">
         <f t="array" ref="I54">(sum(I38:I53) / SUM(ABS(I38:I53)  )+1)  /2</f>
-        <v>0.5625</v>
+        <v>0.380952381</v>
       </c>
     </row>
     <row r="56">
@@ -25391,19 +25389,19 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16">
       <c r="I16" s="10">
         <f t="array" ref="I16">(sum(I3:I15) / SUM(ABS(I3:I15)  )+1)  /2</f>
-        <v>0.7894736842</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18">
@@ -25431,7 +25429,7 @@
         <v>6</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>8</v>
@@ -25637,13 +25635,13 @@
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="31">
@@ -25653,13 +25651,13 @@
       <c r="D31" s="4"/>
       <c r="E31" s="7"/>
       <c r="F31" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="32">
@@ -25667,7 +25665,7 @@
       <c r="F32" s="11"/>
       <c r="I32" s="34">
         <f t="array" ref="I32">(sum(I20:I31) / SUM(ABS(I20:I31)  )+1)  /2</f>
-        <v>0.6</v>
+        <v>0.5294117647</v>
       </c>
     </row>
     <row r="34">
@@ -25901,13 +25899,13 @@
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="47">
@@ -25917,13 +25915,13 @@
       <c r="D47" s="4"/>
       <c r="E47" s="7"/>
       <c r="F47" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="48">
@@ -25933,13 +25931,13 @@
       <c r="D48" s="4"/>
       <c r="E48" s="7"/>
       <c r="F48" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="49">
@@ -25949,19 +25947,19 @@
       <c r="D49" s="4"/>
       <c r="E49" s="7"/>
       <c r="F49" s="4">
-        <v>0.0</v>
+        <v>-0.5</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
       <c r="I49" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="50">
       <c r="I50" s="37">
         <f t="array" ref="I50">(sum(I36:I49) / SUM(ABS(I36:I49)  )+1)  /2</f>
-        <v>0.5714285714</v>
+        <v>0.4444444444</v>
       </c>
     </row>
     <row r="52">
